--- a/SCT__Excel&SQL_test.xlsx
+++ b/SCT__Excel&SQL_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE96CFE-0990-DD42-AD22-16BBB52DA41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1800" windowWidth="30405" windowHeight="14985"/>
+    <workbookView xWindow="11820" yWindow="3020" windowWidth="30400" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Sale" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,6 +21,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -901,7 +904,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
@@ -1024,6 +1027,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1047,9 +1053,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,95 +1333,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X505"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
     <col min="24" max="24" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-    </row>
-    <row r="4" spans="1:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+    </row>
+    <row r="4" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:24" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:24" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>272</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1448,11 +1451,11 @@
       <c r="D7" s="4">
         <v>22</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -1465,11 +1468,11 @@
       <c r="D8" s="4">
         <v>23</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -1482,11 +1485,11 @@
       <c r="D9" s="4">
         <v>33</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -1499,11 +1502,11 @@
       <c r="D10" s="4">
         <v>21</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -1516,11 +1519,11 @@
       <c r="D11" s="4">
         <v>22</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1533,11 +1536,11 @@
       <c r="D12" s="4">
         <v>31</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1550,11 +1553,11 @@
       <c r="D13" s="4">
         <v>22</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1567,11 +1570,11 @@
       <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1584,11 +1587,11 @@
       <c r="D15" s="4">
         <v>31</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1601,11 +1604,11 @@
       <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1618,11 +1621,11 @@
       <c r="D17" s="4">
         <v>31</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1635,11 +1638,11 @@
       <c r="D18" s="4">
         <v>6</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -1652,11 +1655,11 @@
       <c r="D19" s="4">
         <v>5</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1669,11 +1672,11 @@
       <c r="D20" s="4">
         <v>75</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1686,11 +1689,11 @@
       <c r="D21" s="4">
         <v>56</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1703,11 +1706,11 @@
       <c r="D22" s="4">
         <v>66</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1720,11 +1723,11 @@
       <c r="D23" s="4">
         <v>10</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -1737,11 +1740,11 @@
       <c r="D24" s="4">
         <v>23</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -1754,11 +1757,11 @@
       <c r="D25" s="4">
         <v>23</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1771,11 +1774,11 @@
       <c r="D26" s="4">
         <v>23</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1788,11 +1791,11 @@
       <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1805,11 +1808,11 @@
       <c r="D28" s="4">
         <v>12</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1822,11 +1825,11 @@
       <c r="D29" s="4">
         <v>12</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -1839,11 +1842,11 @@
       <c r="D30" s="4">
         <v>12</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -1856,11 +1859,11 @@
       <c r="D31" s="4">
         <v>13</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -1873,11 +1876,11 @@
       <c r="D32" s="4">
         <v>24</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>27</v>
       </c>
@@ -1890,11 +1893,11 @@
       <c r="D33" s="4">
         <v>12</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -1907,11 +1910,11 @@
       <c r="D34" s="4">
         <v>55</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -1924,11 +1927,11 @@
       <c r="D35" s="4">
         <v>23</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -1941,11 +1944,11 @@
       <c r="D36" s="4">
         <v>24</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>31</v>
       </c>
@@ -1958,11 +1961,11 @@
       <c r="D37" s="4">
         <v>23</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -1975,11 +1978,11 @@
       <c r="D38" s="4">
         <v>23</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>33</v>
       </c>
@@ -1992,11 +1995,11 @@
       <c r="D39" s="4">
         <v>24</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>34</v>
       </c>
@@ -2009,11 +2012,11 @@
       <c r="D40" s="4">
         <v>23</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -2026,11 +2029,11 @@
       <c r="D41" s="4">
         <v>53</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -2043,11 +2046,11 @@
       <c r="D42" s="4">
         <v>2</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -2060,11 +2063,11 @@
       <c r="D43" s="4">
         <v>22</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -2077,11 +2080,11 @@
       <c r="D44" s="4">
         <v>12</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -2094,11 +2097,11 @@
       <c r="D45" s="4">
         <v>21</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>40</v>
       </c>
@@ -2111,11 +2114,11 @@
       <c r="D46" s="4">
         <v>21</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>41</v>
       </c>
@@ -2128,11 +2131,11 @@
       <c r="D47" s="4">
         <v>12</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>42</v>
       </c>
@@ -2145,11 +2148,11 @@
       <c r="D48" s="4">
         <v>12</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>43</v>
       </c>
@@ -2162,11 +2165,11 @@
       <c r="D49" s="4">
         <v>31</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>44</v>
       </c>
@@ -2179,31 +2182,31 @@
       <c r="D50" s="4">
         <v>33</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>284</v>
       </c>
@@ -2211,7 +2214,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>273</v>
       </c>
@@ -2221,7 +2224,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>279</v>
       </c>
@@ -2234,7 +2237,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>277</v>
       </c>
@@ -2242,12 +2245,12 @@
         <v>281</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f>IF(B58="?", "",IF(B58=104252,"✅","❌"))</f>
+        <f>IF(B58="?", "",IF(B58=108652,"✅","❌"))</f>
         <v/>
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>278</v>
       </c>
@@ -2260,881 +2263,881 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:5" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+    <row r="63" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -3144,7 +3147,7 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -3154,7 +3157,7 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2</v>
       </c>
@@ -3164,7 +3167,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -3174,7 +3177,7 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -3184,7 +3187,7 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -3194,7 +3197,7 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -3204,7 +3207,7 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -3214,7 +3217,7 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -3224,7 +3227,7 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -3234,7 +3237,7 @@
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -3244,7 +3247,7 @@
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3257,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -3264,7 +3267,7 @@
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -3274,7 +3277,7 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -3284,7 +3287,7 @@
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -3294,7 +3297,7 @@
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>16</v>
       </c>
@@ -3304,7 +3307,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -3314,7 +3317,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>18</v>
       </c>
@@ -3324,7 +3327,7 @@
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>19</v>
       </c>
@@ -3334,7 +3337,7 @@
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -3344,7 +3347,7 @@
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>21</v>
       </c>
@@ -3354,7 +3357,7 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>22</v>
       </c>
@@ -3364,7 +3367,7 @@
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>23</v>
       </c>
@@ -3374,7 +3377,7 @@
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>24</v>
       </c>
@@ -3384,7 +3387,7 @@
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>25</v>
       </c>
@@ -3394,7 +3397,7 @@
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -3404,7 +3407,7 @@
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -3414,7 +3417,7 @@
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>28</v>
       </c>
@@ -3424,7 +3427,7 @@
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>29</v>
       </c>
@@ -3434,7 +3437,7 @@
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>30</v>
       </c>
@@ -3444,7 +3447,7 @@
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>31</v>
       </c>
@@ -3454,7 +3457,7 @@
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>32</v>
       </c>
@@ -3464,7 +3467,7 @@
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>33</v>
       </c>
@@ -3474,7 +3477,7 @@
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>34</v>
       </c>
@@ -3484,7 +3487,7 @@
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>35</v>
       </c>
@@ -3494,7 +3497,7 @@
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>36</v>
       </c>
@@ -3504,7 +3507,7 @@
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>37</v>
       </c>
@@ -3514,7 +3517,7 @@
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>38</v>
       </c>
@@ -3524,7 +3527,7 @@
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>39</v>
       </c>
@@ -3534,7 +3537,7 @@
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>40</v>
       </c>
@@ -3544,7 +3547,7 @@
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>41</v>
       </c>
@@ -3554,7 +3557,7 @@
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>42</v>
       </c>
@@ -3564,7 +3567,7 @@
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>43</v>
       </c>
@@ -3574,7 +3577,7 @@
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>44</v>
       </c>
@@ -3584,7 +3587,7 @@
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>45</v>
       </c>
@@ -3594,7 +3597,7 @@
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>46</v>
       </c>
@@ -3604,7 +3607,7 @@
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>47</v>
       </c>
@@ -3614,7 +3617,7 @@
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>48</v>
       </c>
@@ -3624,7 +3627,7 @@
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>49</v>
       </c>
@@ -3634,7 +3637,7 @@
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>50</v>
       </c>
@@ -3644,7 +3647,7 @@
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>51</v>
       </c>
@@ -3654,7 +3657,7 @@
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>52</v>
       </c>
@@ -3664,7 +3667,7 @@
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>53</v>
       </c>
@@ -3674,7 +3677,7 @@
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>54</v>
       </c>
@@ -3684,7 +3687,7 @@
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>55</v>
       </c>
@@ -3694,7 +3697,7 @@
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>56</v>
       </c>
@@ -3704,7 +3707,7 @@
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>57</v>
       </c>
@@ -3714,7 +3717,7 @@
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>58</v>
       </c>
@@ -3724,7 +3727,7 @@
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>59</v>
       </c>
@@ -3734,7 +3737,7 @@
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>60</v>
       </c>
@@ -3744,7 +3747,7 @@
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>61</v>
       </c>
@@ -3754,7 +3757,7 @@
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>62</v>
       </c>
@@ -3764,7 +3767,7 @@
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>63</v>
       </c>
@@ -3774,7 +3777,7 @@
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>64</v>
       </c>
@@ -3784,7 +3787,7 @@
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>65</v>
       </c>
@@ -3794,7 +3797,7 @@
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>66</v>
       </c>
@@ -3804,7 +3807,7 @@
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>67</v>
       </c>
@@ -3814,7 +3817,7 @@
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>68</v>
       </c>
@@ -3824,7 +3827,7 @@
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>69</v>
       </c>
@@ -3834,7 +3837,7 @@
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>70</v>
       </c>
@@ -3844,7 +3847,7 @@
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>71</v>
       </c>
@@ -3854,7 +3857,7 @@
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>72</v>
       </c>
@@ -3864,7 +3867,7 @@
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>73</v>
       </c>
@@ -3874,7 +3877,7 @@
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>74</v>
       </c>
@@ -3884,7 +3887,7 @@
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>75</v>
       </c>
@@ -3894,7 +3897,7 @@
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>76</v>
       </c>
@@ -3904,7 +3907,7 @@
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>77</v>
       </c>
@@ -3914,7 +3917,7 @@
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>78</v>
       </c>
@@ -3924,7 +3927,7 @@
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>79</v>
       </c>
@@ -3934,7 +3937,7 @@
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>80</v>
       </c>
@@ -3944,7 +3947,7 @@
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>81</v>
       </c>
@@ -3954,7 +3957,7 @@
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>82</v>
       </c>
@@ -3964,7 +3967,7 @@
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>83</v>
       </c>
@@ -3974,7 +3977,7 @@
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>84</v>
       </c>
@@ -3984,7 +3987,7 @@
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>85</v>
       </c>
@@ -3994,7 +3997,7 @@
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>86</v>
       </c>
@@ -4004,7 +4007,7 @@
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>87</v>
       </c>
@@ -4014,7 +4017,7 @@
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>88</v>
       </c>
@@ -4024,7 +4027,7 @@
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>89</v>
       </c>
@@ -4034,7 +4037,7 @@
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>90</v>
       </c>
@@ -4044,7 +4047,7 @@
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>91</v>
       </c>
@@ -4054,7 +4057,7 @@
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>92</v>
       </c>
@@ -4064,7 +4067,7 @@
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>93</v>
       </c>
@@ -4074,7 +4077,7 @@
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>94</v>
       </c>
@@ -4084,7 +4087,7 @@
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>95</v>
       </c>
@@ -4094,7 +4097,7 @@
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>96</v>
       </c>
@@ -4104,7 +4107,7 @@
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>97</v>
       </c>
@@ -4114,7 +4117,7 @@
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>98</v>
       </c>
@@ -4124,7 +4127,7 @@
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -4134,7 +4137,7 @@
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>100</v>
       </c>
@@ -4144,7 +4147,7 @@
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>101</v>
       </c>
@@ -4154,7 +4157,7 @@
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>102</v>
       </c>
@@ -4164,7 +4167,7 @@
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>103</v>
       </c>
@@ -4174,7 +4177,7 @@
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>104</v>
       </c>
@@ -4184,7 +4187,7 @@
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>105</v>
       </c>
@@ -4194,7 +4197,7 @@
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>106</v>
       </c>
@@ -4204,7 +4207,7 @@
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>107</v>
       </c>
@@ -4214,7 +4217,7 @@
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>108</v>
       </c>
@@ -4224,7 +4227,7 @@
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>109</v>
       </c>
@@ -4234,7 +4237,7 @@
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>110</v>
       </c>
@@ -4244,7 +4247,7 @@
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>111</v>
       </c>
@@ -4254,7 +4257,7 @@
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>112</v>
       </c>
@@ -4264,7 +4267,7 @@
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>113</v>
       </c>
@@ -4274,7 +4277,7 @@
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>114</v>
       </c>
@@ -4284,7 +4287,7 @@
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>115</v>
       </c>
@@ -4294,7 +4297,7 @@
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>116</v>
       </c>
@@ -4304,7 +4307,7 @@
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>117</v>
       </c>
@@ -4314,7 +4317,7 @@
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>118</v>
       </c>
@@ -4324,7 +4327,7 @@
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>119</v>
       </c>
@@ -4334,7 +4337,7 @@
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>120</v>
       </c>
@@ -4344,7 +4347,7 @@
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>121</v>
       </c>
@@ -4354,7 +4357,7 @@
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>122</v>
       </c>
@@ -4364,7 +4367,7 @@
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>123</v>
       </c>
@@ -4374,7 +4377,7 @@
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>124</v>
       </c>
@@ -4384,7 +4387,7 @@
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>125</v>
       </c>
@@ -4394,7 +4397,7 @@
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>126</v>
       </c>
@@ -4404,7 +4407,7 @@
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>127</v>
       </c>
@@ -4414,7 +4417,7 @@
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>128</v>
       </c>
@@ -4424,7 +4427,7 @@
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>129</v>
       </c>
@@ -4434,7 +4437,7 @@
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>130</v>
       </c>
@@ -4444,7 +4447,7 @@
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>131</v>
       </c>
@@ -4454,7 +4457,7 @@
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>132</v>
       </c>
@@ -4464,7 +4467,7 @@
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>133</v>
       </c>
@@ -4474,7 +4477,7 @@
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>134</v>
       </c>
@@ -4484,7 +4487,7 @@
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>135</v>
       </c>
@@ -4494,7 +4497,7 @@
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>136</v>
       </c>
@@ -4504,7 +4507,7 @@
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>137</v>
       </c>
@@ -4514,7 +4517,7 @@
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>138</v>
       </c>
@@ -4524,7 +4527,7 @@
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>139</v>
       </c>
@@ -4534,7 +4537,7 @@
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>140</v>
       </c>
@@ -4544,7 +4547,7 @@
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>141</v>
       </c>
@@ -4554,7 +4557,7 @@
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>142</v>
       </c>
@@ -4564,7 +4567,7 @@
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>143</v>
       </c>
@@ -4574,7 +4577,7 @@
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>144</v>
       </c>
@@ -4584,7 +4587,7 @@
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>145</v>
       </c>
@@ -4594,7 +4597,7 @@
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>146</v>
       </c>
@@ -4604,7 +4607,7 @@
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>147</v>
       </c>
@@ -4614,7 +4617,7 @@
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>148</v>
       </c>
@@ -4624,7 +4627,7 @@
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>149</v>
       </c>
@@ -4634,7 +4637,7 @@
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>150</v>
       </c>
@@ -4644,7 +4647,7 @@
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>151</v>
       </c>
@@ -4654,7 +4657,7 @@
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>152</v>
       </c>
@@ -4664,7 +4667,7 @@
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>153</v>
       </c>
@@ -4674,7 +4677,7 @@
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>154</v>
       </c>
@@ -4684,7 +4687,7 @@
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>155</v>
       </c>
@@ -4694,7 +4697,7 @@
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>156</v>
       </c>
@@ -4704,7 +4707,7 @@
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>157</v>
       </c>
@@ -4714,7 +4717,7 @@
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>158</v>
       </c>
@@ -4724,7 +4727,7 @@
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>159</v>
       </c>
@@ -4734,7 +4737,7 @@
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>160</v>
       </c>
@@ -4744,7 +4747,7 @@
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>161</v>
       </c>
@@ -4754,7 +4757,7 @@
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>162</v>
       </c>
@@ -4764,7 +4767,7 @@
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>163</v>
       </c>
@@ -4774,7 +4777,7 @@
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>164</v>
       </c>
@@ -4784,7 +4787,7 @@
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>165</v>
       </c>
@@ -4794,7 +4797,7 @@
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>166</v>
       </c>
@@ -4804,7 +4807,7 @@
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>167</v>
       </c>
@@ -4814,7 +4817,7 @@
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>168</v>
       </c>
@@ -4824,7 +4827,7 @@
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>169</v>
       </c>
@@ -4834,7 +4837,7 @@
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>170</v>
       </c>
@@ -4844,7 +4847,7 @@
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>171</v>
       </c>
@@ -4854,7 +4857,7 @@
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>172</v>
       </c>
@@ -4864,7 +4867,7 @@
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>173</v>
       </c>
@@ -4874,7 +4877,7 @@
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>174</v>
       </c>
@@ -4884,7 +4887,7 @@
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>175</v>
       </c>
@@ -4894,7 +4897,7 @@
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>176</v>
       </c>
@@ -4904,7 +4907,7 @@
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>177</v>
       </c>
@@ -4914,7 +4917,7 @@
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>178</v>
       </c>
@@ -4924,7 +4927,7 @@
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>179</v>
       </c>
@@ -4934,7 +4937,7 @@
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>180</v>
       </c>
@@ -4944,7 +4947,7 @@
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>181</v>
       </c>
@@ -4954,7 +4957,7 @@
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>182</v>
       </c>
@@ -4964,7 +4967,7 @@
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>183</v>
       </c>
@@ -4974,7 +4977,7 @@
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>184</v>
       </c>
@@ -4984,7 +4987,7 @@
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>185</v>
       </c>
@@ -4994,7 +4997,7 @@
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>186</v>
       </c>
@@ -5004,7 +5007,7 @@
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>187</v>
       </c>
@@ -5014,7 +5017,7 @@
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>188</v>
       </c>
@@ -5024,7 +5027,7 @@
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>189</v>
       </c>
@@ -5034,7 +5037,7 @@
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>190</v>
       </c>
@@ -5044,7 +5047,7 @@
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>191</v>
       </c>
@@ -5054,7 +5057,7 @@
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>192</v>
       </c>
@@ -5064,7 +5067,7 @@
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>193</v>
       </c>
@@ -5074,7 +5077,7 @@
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>194</v>
       </c>
@@ -5084,7 +5087,7 @@
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>195</v>
       </c>
@@ -5094,7 +5097,7 @@
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>196</v>
       </c>
@@ -5104,7 +5107,7 @@
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>197</v>
       </c>
@@ -5114,7 +5117,7 @@
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>198</v>
       </c>
@@ -5124,7 +5127,7 @@
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>199</v>
       </c>
@@ -5134,7 +5137,7 @@
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>200</v>
       </c>
@@ -5144,7 +5147,7 @@
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>201</v>
       </c>
@@ -5154,7 +5157,7 @@
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>202</v>
       </c>
@@ -5164,7 +5167,7 @@
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>203</v>
       </c>
@@ -5174,7 +5177,7 @@
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>204</v>
       </c>
@@ -5184,7 +5187,7 @@
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>205</v>
       </c>
@@ -5194,7 +5197,7 @@
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>206</v>
       </c>
@@ -5204,7 +5207,7 @@
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>207</v>
       </c>
@@ -5214,7 +5217,7 @@
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>208</v>
       </c>
@@ -5224,7 +5227,7 @@
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>209</v>
       </c>
@@ -5234,7 +5237,7 @@
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>210</v>
       </c>
@@ -5244,7 +5247,7 @@
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>211</v>
       </c>
@@ -5254,7 +5257,7 @@
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>212</v>
       </c>
@@ -5264,7 +5267,7 @@
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>213</v>
       </c>
@@ -5274,7 +5277,7 @@
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>214</v>
       </c>
@@ -5284,7 +5287,7 @@
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>215</v>
       </c>
@@ -5294,7 +5297,7 @@
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>216</v>
       </c>
@@ -5304,7 +5307,7 @@
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>217</v>
       </c>
@@ -5314,7 +5317,7 @@
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>218</v>
       </c>
@@ -5324,7 +5327,7 @@
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>219</v>
       </c>
@@ -5334,7 +5337,7 @@
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>220</v>
       </c>
@@ -5344,7 +5347,7 @@
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>221</v>
       </c>
@@ -5354,7 +5357,7 @@
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>222</v>
       </c>
@@ -5364,7 +5367,7 @@
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>223</v>
       </c>
@@ -5374,7 +5377,7 @@
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>224</v>
       </c>
@@ -5384,7 +5387,7 @@
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>225</v>
       </c>
@@ -5394,7 +5397,7 @@
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>226</v>
       </c>
@@ -5404,7 +5407,7 @@
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>227</v>
       </c>
@@ -5414,7 +5417,7 @@
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>228</v>
       </c>
@@ -5424,7 +5427,7 @@
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>229</v>
       </c>
@@ -5434,7 +5437,7 @@
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>230</v>
       </c>
@@ -5444,7 +5447,7 @@
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>231</v>
       </c>
@@ -5454,7 +5457,7 @@
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>232</v>
       </c>
@@ -5464,7 +5467,7 @@
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>233</v>
       </c>
@@ -5474,7 +5477,7 @@
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>234</v>
       </c>
@@ -5484,7 +5487,7 @@
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>235</v>
       </c>
@@ -5494,7 +5497,7 @@
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>236</v>
       </c>
@@ -5504,7 +5507,7 @@
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>237</v>
       </c>
@@ -5514,7 +5517,7 @@
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>238</v>
       </c>
@@ -5524,7 +5527,7 @@
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>239</v>
       </c>
@@ -5534,7 +5537,7 @@
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>240</v>
       </c>
@@ -5544,7 +5547,7 @@
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>241</v>
       </c>
@@ -5554,7 +5557,7 @@
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>242</v>
       </c>
@@ -5564,7 +5567,7 @@
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>243</v>
       </c>
@@ -5574,7 +5577,7 @@
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>244</v>
       </c>
@@ -5584,7 +5587,7 @@
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>245</v>
       </c>
@@ -5594,7 +5597,7 @@
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>246</v>
       </c>
@@ -5604,7 +5607,7 @@
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>247</v>
       </c>
@@ -5614,7 +5617,7 @@
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>248</v>
       </c>
@@ -5624,7 +5627,7 @@
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>249</v>
       </c>
@@ -5634,7 +5637,7 @@
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>250</v>
       </c>
@@ -5644,7 +5647,7 @@
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>251</v>
       </c>
@@ -5654,7 +5657,7 @@
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>252</v>
       </c>
@@ -5664,7 +5667,7 @@
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>253</v>
       </c>
@@ -5674,7 +5677,7 @@
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>254</v>
       </c>
@@ -5684,7 +5687,7 @@
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>255</v>
       </c>
@@ -5694,7 +5697,7 @@
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>256</v>
       </c>
@@ -5704,7 +5707,7 @@
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>257</v>
       </c>
@@ -5714,7 +5717,7 @@
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>258</v>
       </c>
@@ -5724,7 +5727,7 @@
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>259</v>
       </c>
@@ -5734,7 +5737,7 @@
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>260</v>
       </c>
@@ -5744,7 +5747,7 @@
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>261</v>
       </c>
@@ -5754,7 +5757,7 @@
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>262</v>
       </c>
@@ -5764,7 +5767,7 @@
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>263</v>
       </c>
@@ -5774,7 +5777,7 @@
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>264</v>
       </c>
@@ -5784,7 +5787,7 @@
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>265</v>
       </c>
@@ -5794,7 +5797,7 @@
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>266</v>
       </c>
@@ -5804,7 +5807,7 @@
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>267</v>
       </c>
@@ -5814,7 +5817,7 @@
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>268</v>
       </c>
@@ -5824,7 +5827,7 @@
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>269</v>
       </c>
@@ -5834,7 +5837,7 @@
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>270</v>
       </c>
@@ -5844,7 +5847,7 @@
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>271</v>
       </c>
@@ -5864,7 +5867,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B50 A57:A59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B50 A57:A59" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Electronics, Furniture, Clothing"</formula1>
     </dataValidation>
   </dataValidations>
